--- a/report/Gaussian.xlsx
+++ b/report/Gaussian.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t xml:space="preserve">MIN DCF</t>
   </si>
@@ -106,6 +106,12 @@
   </si>
   <si>
     <t>14.65</t>
+  </si>
+  <si>
+    <t>0.329</t>
+  </si>
+  <si>
+    <t>16.08</t>
   </si>
 </sst>
 </file>
@@ -1016,6 +1022,15 @@
       <c r="D41" t="s">
         <v>5</v>
       </c>
+      <c r="F41" t="s">
+        <v>31</v>
+      </c>
+      <c r="G41" t="s">
+        <v>19</v>
+      </c>
+      <c r="H41" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="42" ht="14.25"/>
   </sheetData>

--- a/report/Gaussian.xlsx
+++ b/report/Gaussian.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t xml:space="preserve">MIN DCF</t>
   </si>
@@ -93,25 +93,22 @@
     <t xml:space="preserve">(TEST DATASET)</t>
   </si>
   <si>
-    <t>0.320</t>
-  </si>
-  <si>
-    <t>0.360</t>
-  </si>
-  <si>
-    <t>18.16</t>
-  </si>
-  <si>
-    <t>0.323</t>
-  </si>
-  <si>
-    <t>14.65</t>
-  </si>
-  <si>
-    <t>0.329</t>
-  </si>
-  <si>
-    <t>16.08</t>
+    <t>0.336</t>
+  </si>
+  <si>
+    <t>0.353</t>
+  </si>
+  <si>
+    <t>0.315</t>
+  </si>
+  <si>
+    <t>14.98</t>
+  </si>
+  <si>
+    <t>0.342</t>
+  </si>
+  <si>
+    <t>17.17</t>
   </si>
 </sst>
 </file>
@@ -179,7 +176,7 @@
   <cellStyleXfs count="1">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="1" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
     <xf fontId="2" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
@@ -189,6 +186,7 @@
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="3" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
     <xf fontId="4" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -988,28 +986,25 @@
       <c r="D37" t="s">
         <v>5</v>
       </c>
-      <c r="F37" t="s">
+      <c r="F37" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="G37" t="s">
+      <c r="G37" s="6" t="s">
         <v>27</v>
-      </c>
-      <c r="H37" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="38" ht="14.25">
       <c r="D38" t="s">
         <v>7</v>
       </c>
-      <c r="F38" t="s">
+      <c r="F38" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="G38" t="s">
+        <v>26</v>
+      </c>
+      <c r="H38" t="s">
         <v>29</v>
-      </c>
-      <c r="G38" t="s">
-        <v>20</v>
-      </c>
-      <c r="H38" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="39" ht="14.25"/>
@@ -1022,14 +1017,14 @@
       <c r="D41" t="s">
         <v>5</v>
       </c>
-      <c r="F41" t="s">
+      <c r="F41" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="G41" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="H41" t="s">
         <v>31</v>
-      </c>
-      <c r="G41" t="s">
-        <v>19</v>
-      </c>
-      <c r="H41" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="42" ht="14.25"/>

--- a/report/Gaussian.xlsx
+++ b/report/Gaussian.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t xml:space="preserve">MIN DCF</t>
   </si>
@@ -97,6 +97,9 @@
   </si>
   <si>
     <t>0.353</t>
+  </si>
+  <si>
+    <t>18.44</t>
   </si>
   <si>
     <t>0.315</t>
@@ -992,19 +995,22 @@
       <c r="G37" s="6" t="s">
         <v>27</v>
       </c>
+      <c r="H37" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="38" ht="14.25">
       <c r="D38" t="s">
         <v>7</v>
       </c>
       <c r="F38" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G38" t="s">
         <v>26</v>
       </c>
       <c r="H38" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="39" ht="14.25"/>
@@ -1018,13 +1024,13 @@
         <v>5</v>
       </c>
       <c r="F41" s="9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G41" s="6" t="s">
         <v>17</v>
       </c>
       <c r="H41" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="42" ht="14.25"/>
